--- a/spreadsheets/ashrae_fundamentals_flexduct_stretch_correction_factor.xlsx
+++ b/spreadsheets/ashrae_fundamentals_flexduct_stretch_correction_factor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thinkpad\Documents\GitHub\ductwork\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2042D58-EFEA-41EF-9875-6E9A23F49172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0662A866-EF0D-4A29-9FE6-DA40BF466DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EA8630C3-C578-49A7-8805-242B3944D627}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>x</t>
   </si>
@@ -65,10 +65,13 @@
     <t>exp</t>
   </si>
   <si>
-    <t>original - 1</t>
+    <t>y = 0,557 * x * exp(-0.005 * diameter) + 1</t>
   </si>
   <si>
-    <t>y = 0,557 * x * exp(-0.005 * diameter) + 1</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>y-1</t>
   </si>
 </sst>
 </file>
@@ -158,7 +161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -191,6 +194,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1129,27 +1141,54 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$7:$C$30</c:f>
+              <c:f>Sheet1!$C$21:$C$44</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
+                  <c:v>6.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.15</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>0.315</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3147,7 +3186,7 @@
   <dimension ref="B1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3159,7 +3198,7 @@
     <col min="6" max="6" width="7.85546875" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3173,35 +3212,35 @@
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1"/>
+      <c r="F5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="20"/>
       <c r="H5" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1"/>
       <c r="L6" s="1"/>
@@ -3230,7 +3269,7 @@
         <v>8</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" ref="H7:H12" si="0">$E$16*(100-D7)*EXP($E$17*B7)+1</f>
+        <f>$F$16*(100-D7)*EXP($E$17*B7)+1</f>
         <v>8.8946621959605778</v>
       </c>
       <c r="K7" s="3"/>
@@ -3242,25 +3281,25 @@
         <v>200</v>
       </c>
       <c r="C8" s="17">
-        <f t="shared" ref="C8:C12" si="1">B8/1000</f>
+        <f t="shared" ref="C8:C12" si="0">B8/1000</f>
         <v>0.2</v>
       </c>
       <c r="D8" s="5">
         <v>70</v>
       </c>
       <c r="E8" s="6">
-        <f t="shared" ref="E8:E12" si="2">100-D8</f>
+        <f t="shared" ref="E8:E12" si="1">100-D8</f>
         <v>30</v>
       </c>
       <c r="F8" s="2">
         <v>7.2</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" ref="G8:G12" si="3">F8-1</f>
+        <f t="shared" ref="G8:G12" si="2">F8-1</f>
         <v>6.2</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="0"/>
+        <f>$F$16*(100-D8)*EXP($E$17*B8)+1</f>
         <v>7.1483691002983161</v>
       </c>
       <c r="K8" s="3"/>
@@ -3270,25 +3309,25 @@
         <v>250</v>
       </c>
       <c r="C9" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="D9" s="5">
         <v>70</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="F9" s="1">
         <v>5.7</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.7</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="0"/>
+        <f>$F$16*(100-D9)*EXP($E$17*B9)+1</f>
         <v>5.7883546699243569</v>
       </c>
       <c r="K9" s="3"/>
@@ -3298,25 +3337,25 @@
         <v>300</v>
       </c>
       <c r="C10" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
       <c r="D10" s="5">
         <v>70</v>
       </c>
       <c r="E10" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="F10" s="1">
         <v>4.9000000000000004</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.9000000000000004</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="0"/>
+        <f>$F$16*(100-D10)*EXP($E$17*B10)+1</f>
         <v>4.7291743665607076</v>
       </c>
       <c r="K10" s="3"/>
@@ -3326,25 +3365,25 @@
         <v>350</v>
       </c>
       <c r="C11" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
       <c r="D11" s="5">
         <v>70</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="F11" s="1">
         <v>4.2</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.2</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="0"/>
+        <f>$F$16*(100-D11)*EXP($E$17*B11)+1</f>
         <v>3.9042839168872896</v>
       </c>
       <c r="K11" s="3"/>
@@ -3354,36 +3393,37 @@
         <v>400</v>
       </c>
       <c r="C12" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="D12" s="5">
         <v>70</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="F12" s="1">
         <v>3.2</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="0"/>
+        <f>$F$16*(100-D12)*EXP($E$17*B12)+1</f>
         <v>3.2618585887335083</v>
       </c>
       <c r="K12" s="3"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>100</v>
       </c>
+      <c r="F14" s="1"/>
       <c r="I14" s="1" t="s">
         <v>3</v>
       </c>
@@ -3392,13 +3432,14 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <f>100-E14</f>
         <v>0</v>
       </c>
+      <c r="F15" s="1"/>
       <c r="H15" s="1">
         <f>B7</f>
         <v>150</v>
@@ -3413,11 +3454,14 @@
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D16">
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1">
         <v>16.713000000000001</v>
       </c>
-      <c r="E16" s="7">
-        <f>D16/30</f>
+      <c r="F16" s="18">
+        <f>E16/30</f>
         <v>0.55710000000000004</v>
       </c>
       <c r="H16" s="1">
@@ -3432,7 +3476,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="7">
@@ -3457,7 +3501,7 @@
         <v>30</v>
       </c>
       <c r="J18" s="13">
-        <f>$E$16*I18*EXP(-0.005*B7)+1</f>
+        <f>$F$16*I18*EXP(-0.005*B7)+1</f>
         <v>8.8946621959605778</v>
       </c>
     </row>
@@ -3469,7 +3513,7 @@
         <v>15</v>
       </c>
       <c r="J19" s="2">
-        <f>E$16*I19*EXP(E17*B7)+1</f>
+        <f>F$16*I19*EXP(E17*B7)+1</f>
         <v>4.9473310979802889</v>
       </c>
     </row>
@@ -3481,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="2">
-        <f>E$16*I20*EXP(-0.005*B9)+1</f>
+        <f>F$16*I20*EXP(-0.005*B9)+1</f>
         <v>1</v>
       </c>
     </row>
@@ -3489,12 +3533,15 @@
       <c r="B21" s="8">
         <v>63</v>
       </c>
-      <c r="C21" s="8"/>
+      <c r="C21" s="8">
+        <f>B21/1000</f>
+        <v>6.3E-2</v>
+      </c>
       <c r="D21">
         <v>70</v>
       </c>
       <c r="E21" s="2">
-        <f>$E$16*(100-D21)*EXP(E$17*B21)+1</f>
+        <f>$F$16*(100-D21)*EXP(E$17*B21)+1</f>
         <v>13.196961455658748</v>
       </c>
       <c r="G21" s="14">
@@ -3508,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" ref="J21:J27" si="4">$E$16*(100-H21)*EXP($E$17*G21)+1</f>
+        <f>$F$16*(100-H21)*EXP($E$17*G21)+1</f>
         <v>1</v>
       </c>
     </row>
@@ -3516,12 +3563,15 @@
       <c r="B22" s="8">
         <v>80</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="C22" s="8">
+        <f t="shared" ref="C22:C35" si="3">B22/1000</f>
+        <v>0.08</v>
+      </c>
       <c r="D22">
         <v>70</v>
       </c>
       <c r="E22" s="2">
-        <f>$E$16*(100-D22)*EXP(E$17*B22)+1</f>
+        <f>$F$16*(100-D22)*EXP(E$17*B22)+1</f>
         <v>12.203058929393642</v>
       </c>
       <c r="G22" s="14">
@@ -3532,11 +3582,11 @@
         <v>95</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22:I27" si="5">100-H22</f>
+        <f t="shared" ref="I22:I27" si="4">100-H22</f>
         <v>5</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="4"/>
+        <f>$F$16*(100-H22)*EXP($E$17*G22)+1</f>
         <v>2.3157770326600966</v>
       </c>
     </row>
@@ -3544,27 +3594,30 @@
       <c r="B23" s="9">
         <v>100</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="8">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
       <c r="D23">
         <v>70</v>
       </c>
       <c r="E23" s="2">
-        <f>$E$16*(100-D23)*EXP(E$17*B23)+1</f>
+        <f>$F$16*(100-D23)*EXP(E$17*B23)+1</f>
         <v>11.136946915777242</v>
       </c>
       <c r="G23" s="14">
         <v>150</v>
       </c>
       <c r="H23">
-        <f t="shared" ref="H23:H27" si="6">H22-5</f>
+        <f t="shared" ref="H23:H27" si="5">H22-5</f>
         <v>90</v>
       </c>
       <c r="I23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="4"/>
+        <f>$F$16*(100-H23)*EXP($E$17*G23)+1</f>
         <v>3.6315540653201932</v>
       </c>
     </row>
@@ -3572,27 +3625,30 @@
       <c r="B24" s="9">
         <v>125</v>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="8">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
       <c r="D24">
         <v>70</v>
       </c>
       <c r="E24" s="2">
-        <f>$E$16*(100-D24)*EXP(E$17*B24)+1</f>
+        <f>$F$16*(100-D24)*EXP(E$17*B24)+1</f>
         <v>9.9458242548378859</v>
       </c>
       <c r="G24" s="14">
         <v>150</v>
       </c>
       <c r="H24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="I24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="4"/>
+        <f>$F$16*(100-H24)*EXP($E$17*G24)+1</f>
         <v>4.9473310979802889</v>
       </c>
     </row>
@@ -3600,27 +3656,30 @@
       <c r="B25" s="11">
         <v>150</v>
       </c>
-      <c r="C25" s="11"/>
+      <c r="C25" s="8">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
       <c r="D25" s="12">
         <v>70</v>
       </c>
       <c r="E25" s="2">
-        <f>$E$16*(100-D25)*EXP($E$17*B25)+1</f>
+        <f>$F$16*(100-D25)*EXP($E$17*B25)+1</f>
         <v>8.8946621959605778</v>
       </c>
       <c r="G25" s="14">
         <v>150</v>
       </c>
       <c r="H25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="I25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="4"/>
+        <f>$F$16*(100-H25)*EXP($E$17*G25)+1</f>
         <v>6.2631081306403864</v>
       </c>
     </row>
@@ -3628,27 +3687,30 @@
       <c r="B26" s="9">
         <v>160</v>
       </c>
-      <c r="C26" s="9"/>
+      <c r="C26" s="8">
+        <f t="shared" si="3"/>
+        <v>0.16</v>
+      </c>
       <c r="D26">
         <v>70</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" ref="E26:E35" si="7">$E$16*(100-D26)*EXP(E$17*B26)+1</f>
+        <f>$F$16*(100-D26)*EXP(E$17*B26)+1</f>
         <v>8.5096349772911246</v>
       </c>
       <c r="G26" s="14">
         <v>150</v>
       </c>
       <c r="H26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="I26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="4"/>
+        <f>$F$16*(100-H26)*EXP($E$17*G26)+1</f>
         <v>7.5788851633004821</v>
       </c>
     </row>
@@ -3656,27 +3718,30 @@
       <c r="B27" s="9">
         <v>200</v>
       </c>
-      <c r="C27" s="9"/>
+      <c r="C27" s="8">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
       <c r="D27">
         <v>70</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="7"/>
+        <f>$F$16*(100-D27)*EXP(E$17*B27)+1</f>
         <v>7.1483691002983161</v>
       </c>
       <c r="G27" s="14">
         <v>150</v>
       </c>
       <c r="H27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="I27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="4"/>
+        <f>$F$16*(100-H27)*EXP($E$17*G27)+1</f>
         <v>8.8946621959605778</v>
       </c>
     </row>
@@ -3684,12 +3749,15 @@
       <c r="B28" s="9">
         <v>250</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="8">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
       <c r="D28">
         <v>70</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="7"/>
+        <f>$F$16*(100-D28)*EXP(E$17*B28)+1</f>
         <v>5.7883546699243569</v>
       </c>
       <c r="G28" s="15"/>
@@ -3698,12 +3766,15 @@
       <c r="B29" s="9">
         <v>300</v>
       </c>
-      <c r="C29" s="9"/>
+      <c r="C29" s="8">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
       <c r="D29">
         <v>70</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="7"/>
+        <f>$F$16*(100-D29)*EXP(E$17*B29)+1</f>
         <v>4.7291743665607076</v>
       </c>
       <c r="G29" s="14">
@@ -3717,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" ref="J29:J35" si="8">$E$16*(100-H29)*EXP($E$17*G29)+1</f>
+        <f>$F$16*(100-H29)*EXP($E$17*G29)+1</f>
         <v>1</v>
       </c>
     </row>
@@ -3725,12 +3796,15 @@
       <c r="B30" s="9">
         <v>315</v>
       </c>
-      <c r="C30" s="9"/>
+      <c r="C30" s="8">
+        <f t="shared" si="3"/>
+        <v>0.315</v>
+      </c>
       <c r="D30">
         <v>70</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="7"/>
+        <f>$F$16*(100-D30)*EXP(E$17*B30)+1</f>
         <v>4.4597172279601045</v>
       </c>
       <c r="G30" s="14">
@@ -3741,11 +3815,11 @@
         <v>95</v>
       </c>
       <c r="I30">
-        <f t="shared" ref="I30:I35" si="9">100-H30</f>
+        <f t="shared" ref="I30:I35" si="6">100-H30</f>
         <v>5</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="8"/>
+        <f>$F$16*(100-H30)*EXP($E$17*G30)+1</f>
         <v>1.3769764314555848</v>
       </c>
     </row>
@@ -3753,27 +3827,30 @@
       <c r="B31" s="9">
         <v>355</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="8">
+        <f t="shared" si="3"/>
+        <v>0.35499999999999998</v>
+      </c>
       <c r="D31">
         <v>70</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="7"/>
+        <f>$F$16*(100-D31)*EXP(E$17*B31)+1</f>
         <v>3.8325768914846434</v>
       </c>
       <c r="G31" s="14">
         <v>400</v>
       </c>
       <c r="H31">
-        <f t="shared" ref="H31:H35" si="10">H30-5</f>
+        <f t="shared" ref="H31:H35" si="7">H30-5</f>
         <v>90</v>
       </c>
       <c r="I31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="8"/>
+        <f>$F$16*(100-H31)*EXP($E$17*G31)+1</f>
         <v>1.7539528629111696</v>
       </c>
     </row>
@@ -3781,27 +3858,30 @@
       <c r="B32" s="10">
         <v>400</v>
       </c>
-      <c r="C32" s="10"/>
+      <c r="C32" s="8">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
       <c r="D32">
         <v>70</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="7"/>
+        <f>$F$16*(100-D32)*EXP(E$17*B32)+1</f>
         <v>3.2618585887335083</v>
       </c>
       <c r="G32" s="14">
         <v>400</v>
       </c>
       <c r="H32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>85</v>
       </c>
       <c r="I32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="8"/>
+        <f>$F$16*(100-H32)*EXP($E$17*G32)+1</f>
         <v>2.1309292943667542</v>
       </c>
     </row>
@@ -3809,27 +3889,30 @@
       <c r="B33" s="9">
         <v>450</v>
       </c>
-      <c r="C33" s="9"/>
+      <c r="C33" s="8">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
       <c r="D33">
         <v>70</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="7"/>
+        <f>$F$16*(100-D33)*EXP(E$17*B33)+1</f>
         <v>2.761537240102439</v>
       </c>
       <c r="G33" s="14">
         <v>400</v>
       </c>
       <c r="H33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="I33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="8"/>
+        <f>$F$16*(100-H33)*EXP($E$17*G33)+1</f>
         <v>2.5079057258223392</v>
       </c>
     </row>
@@ -3837,27 +3920,30 @@
       <c r="B34" s="9">
         <v>500</v>
       </c>
-      <c r="C34" s="9"/>
+      <c r="C34" s="8">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
       <c r="D34">
         <v>70</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="7"/>
+        <f>$F$16*(100-D34)*EXP(E$17*B34)+1</f>
         <v>2.3718865820012205</v>
       </c>
       <c r="G34" s="14">
         <v>400</v>
       </c>
       <c r="H34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="I34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="8"/>
+        <f>$F$16*(100-H34)*EXP($E$17*G34)+1</f>
         <v>2.8848821572779233</v>
       </c>
     </row>
@@ -3865,27 +3951,30 @@
       <c r="B35" s="9">
         <v>560</v>
       </c>
-      <c r="C35" s="9"/>
+      <c r="C35" s="8">
+        <f t="shared" si="3"/>
+        <v>0.56000000000000005</v>
+      </c>
       <c r="D35">
         <v>70</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="7"/>
+        <f>$F$16*(100-D35)*EXP(E$17*B35)+1</f>
         <v>2.0163185766552676</v>
       </c>
       <c r="G35" s="14">
         <v>400</v>
       </c>
       <c r="H35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>70</v>
       </c>
       <c r="I35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="8"/>
+        <f>$F$16*(100-H35)*EXP($E$17*G35)+1</f>
         <v>3.2618585887335083</v>
       </c>
     </row>
@@ -3925,6 +4014,9 @@
       <c r="E44" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F5:G5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
